--- a/Data/ClientData.xlsx
+++ b/Data/ClientData.xlsx
@@ -1,26 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\IdeaProjects\POM8AMApril25\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9559F1D0-9D5F-4D30-A086-9450B6E040C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66113F42-B585-4851-A3C9-3EE72AFE2DEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="77">
   <si>
     <t>ClientName</t>
   </si>
@@ -242,6 +244,15 @@
   </si>
   <si>
     <t>//div[contains(@class,'success')]</t>
+  </si>
+  <si>
+    <t>Data from excel :</t>
+  </si>
+  <si>
+    <t>ArrayList&lt;string&gt; expected = new ArrayList&lt;&gt;()</t>
+  </si>
+  <si>
+    <t>Amit4</t>
   </si>
 </sst>
 </file>
@@ -265,12 +276,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -285,12 +302,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -597,8 +615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+    <sheetView topLeftCell="O1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="O2" sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -876,4 +894,310 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10E7EFAF-5F25-4DBD-A870-0ACD9D15235F}">
+  <dimension ref="A1:R2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F379369-691F-45FC-88BD-FA2F0BE53E7E}">
+  <dimension ref="A7:R11"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="D8" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="10" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>